--- a/public/data/simdasi/template simdasi.xlsx
+++ b/public/data/simdasi/template simdasi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="5.4.3" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,11 @@
     <sheet name="5.4.7" sheetId="5" r:id="rId5"/>
     <sheet name="5.4.8" sheetId="6" r:id="rId6"/>
     <sheet name="5.4.9" sheetId="7" r:id="rId7"/>
+    <sheet name="5.4.10" sheetId="8" r:id="rId8"/>
+    <sheet name="5.4.11" sheetId="9" r:id="rId9"/>
+    <sheet name="5.4.12" sheetId="10" r:id="rId10"/>
+    <sheet name="5.4.13" sheetId="11" r:id="rId11"/>
+    <sheet name="5.4.14" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="103">
   <si>
     <t xml:space="preserve">Jenis Tanaman Kind of Plants </t>
   </si>
@@ -208,12 +213,142 @@
   </si>
   <si>
     <t>Petai/ Twisted Cluster Bean</t>
+  </si>
+  <si>
+    <t>Tanaman Tahunan</t>
+  </si>
+  <si>
+    <t>Perennial Crops</t>
+  </si>
+  <si>
+    <t>Karet/Rubber</t>
+  </si>
+  <si>
+    <t>Kelapa/Coconut</t>
+  </si>
+  <si>
+    <t>Kelapa sawit/Oil palm</t>
+  </si>
+  <si>
+    <t>Kopi/Coffee</t>
+  </si>
+  <si>
+    <t>Kakao/Cocoa</t>
+  </si>
+  <si>
+    <t>Teh/Tea</t>
+  </si>
+  <si>
+    <t>Tanaman Semusim</t>
+  </si>
+  <si>
+    <t>Seasonal Crops</t>
+  </si>
+  <si>
+    <t>Tebu/Sugar cane</t>
+  </si>
+  <si>
+    <t>Tembakau/Tobacco</t>
+  </si>
+  <si>
+    <t>Luas Areal Tanaman Perkebunan Menurut Jenis Tanaman di Kecamatan xxx (ha), 2021–2022</t>
+  </si>
+  <si>
+    <t>Produksi Tanaman Perkebunan Menurut Jenis Tanaman di Kecamatan xxx (ha), 2021–2022</t>
+  </si>
+  <si>
+    <t>Luas Kawasan Hutan Menurut Fungsi Hutan di Kecamatan xxx (ha), 2022</t>
+  </si>
+  <si>
+    <t>Fungsi Hutan</t>
+  </si>
+  <si>
+    <t>Hutan Lindung/Protected Forest</t>
+  </si>
+  <si>
+    <t>Hutan Produksi/Production Forest</t>
+  </si>
+  <si>
+    <t>Kawasan Untuk  Perlindungan/Area For Protection</t>
+  </si>
+  <si>
+    <t>Kawasan Untuk Produksi/Production Area</t>
+  </si>
+  <si>
+    <t>Penggunaan Lain/Other Uses</t>
+  </si>
+  <si>
+    <t>Populasi Ternak Menurut Jenis Ternak dan  Jenis Kelamin  di Kecamatan xxx (ekor), 2022</t>
+  </si>
+  <si>
+    <t>Sapi Perah/Dairy Cattle</t>
+  </si>
+  <si>
+    <t>Sapi Potong/Beef Cattle</t>
+  </si>
+  <si>
+    <t>Kerbau/Buffalo</t>
+  </si>
+  <si>
+    <t>Kuda/Horse</t>
+  </si>
+  <si>
+    <t>Kambing/Goat</t>
+  </si>
+  <si>
+    <t>Domba/Sheep</t>
+  </si>
+  <si>
+    <t>Babi/Pig</t>
+  </si>
+  <si>
+    <t>Kelinci / Rabbits</t>
+  </si>
+  <si>
+    <t>Jenis Ternak</t>
+  </si>
+  <si>
+    <t>Populasi Unggas Menurut Kecamatan dan Jenis Unggas di Kecamatan xxx (ekor), 2022</t>
+  </si>
+  <si>
+    <t>Ayam Buras/Native Chicken</t>
+  </si>
+  <si>
+    <t>Ayam Petelur/Layer</t>
+  </si>
+  <si>
+    <t>Ayam Pedaging/Broiler</t>
+  </si>
+  <si>
+    <t>Itik/Duck</t>
+  </si>
+  <si>
+    <t>Itik Manila/Muscovy Duck</t>
+  </si>
+  <si>
+    <t>Burung Puyuh/Quail</t>
+  </si>
+  <si>
+    <t>Merpati/Dove</t>
+  </si>
+  <si>
+    <t>Jantan</t>
+  </si>
+  <si>
+    <t>Betina</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#\ ###\ ###\ ##0.00"/>
+    <numFmt numFmtId="165" formatCode="#\ ###\ ###\ ###"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -284,12 +419,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -299,6 +436,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,11 +734,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
@@ -724,6 +865,289 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="4" width="35.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="4">
+        <f>SUM(B5:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <f>SUM(C5:C9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="40.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11">
+        <f>SUM(B5:C5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11">
+        <f t="shared" ref="D6:D12" si="0">SUM(B6:C6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="47.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -743,11 +1167,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
@@ -892,11 +1316,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
@@ -989,11 +1413,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
@@ -1086,11 +1510,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
@@ -1203,11 +1627,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
@@ -1310,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1321,11 +1745,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
@@ -1497,4 +1921,264 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="33.75" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/data/simdasi/template simdasi.xlsx
+++ b/public/data/simdasi/template simdasi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="5.4.3" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="5.4.12" sheetId="10" r:id="rId10"/>
     <sheet name="5.4.13" sheetId="11" r:id="rId11"/>
     <sheet name="5.4.14" sheetId="12" r:id="rId12"/>
+    <sheet name="5.4.15" sheetId="13" r:id="rId13"/>
+    <sheet name="5.4.16" sheetId="14" r:id="rId14"/>
+    <sheet name="5.4.1" sheetId="15" r:id="rId15"/>
+    <sheet name="5.4.2" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="136">
   <si>
     <t xml:space="preserve">Jenis Tanaman Kind of Plants </t>
   </si>
@@ -339,6 +343,105 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Jumlah Rumah Tangga Perikanan Budidaya Menurut Jenis Budidaya di Kecamatan xxx, 2022</t>
+  </si>
+  <si>
+    <t>Budidaya Laut/Marine Culture</t>
+  </si>
+  <si>
+    <t>Tambak/Brackish Water Pond</t>
+  </si>
+  <si>
+    <t>Kolam /Fresh Water Pond</t>
+  </si>
+  <si>
+    <t>Keramba/ Cage</t>
+  </si>
+  <si>
+    <t>Jaring Apung/Floating Cage Net</t>
+  </si>
+  <si>
+    <t>Jaring Tancap/Step Net</t>
+  </si>
+  <si>
+    <t>Sawah/Paddy Field</t>
+  </si>
+  <si>
+    <t>Jumlah Ruta</t>
+  </si>
+  <si>
+    <t>Produksi Perikanan Tangkap dan Perikanan Budidaya Menurut Subsektor di Kecamatan xxx (ton), 2022</t>
+  </si>
+  <si>
+    <t>Perikanan Tangkap/Fish Capture</t>
+  </si>
+  <si>
+    <t>Penangkapan Laut/Sea Catching</t>
+  </si>
+  <si>
+    <t>Penangkapan Perairan Umum/ Catching Public Waters</t>
+  </si>
+  <si>
+    <t>Perikanan Budidaya/Aquaculture</t>
+  </si>
+  <si>
+    <t>Tambak/Pond</t>
+  </si>
+  <si>
+    <t>Kolam/Pool</t>
+  </si>
+  <si>
+    <t>Keramba/Cages</t>
+  </si>
+  <si>
+    <t>Jaring Apung/Floating Net</t>
+  </si>
+  <si>
+    <t>Jaring Tancap/Deep Net</t>
+  </si>
+  <si>
+    <t>Sawah/Rice Fields</t>
+  </si>
+  <si>
+    <t>Laut/The Sea</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luas Panen Tanaman Pangan Menurut Jenis Tanaman di Kecamatan xxx (ha), 2021–2022 </t>
+  </si>
+  <si>
+    <t>Padi/Paddy</t>
+  </si>
+  <si>
+    <t>Padi Sawah/Paddy In Wet Field</t>
+  </si>
+  <si>
+    <t>Padi Ladang/Paddy In Dry Field</t>
+  </si>
+  <si>
+    <t>Jagung/Maize</t>
+  </si>
+  <si>
+    <t>Kedelai/Soybean</t>
+  </si>
+  <si>
+    <t>Kacang Tanah/Peanut</t>
+  </si>
+  <si>
+    <t>Kacang Hijau/Mungbean</t>
+  </si>
+  <si>
+    <t>Ubi Kayu/Cassava</t>
+  </si>
+  <si>
+    <t>Ubi Jalar/Sweet Potato</t>
+  </si>
+  <si>
+    <t>Produksi Tanaman Pangan Menurut Jenis Tanaman di Kecamatan xxx (ton), 2021–2022</t>
   </si>
 </sst>
 </file>
@@ -419,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -427,6 +530,10 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -439,7 +546,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,11 +840,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
@@ -988,9 +1094,9 @@
       <c r="A5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
         <f>SUM(B5:C5)</f>
         <v>0</v>
       </c>
@@ -999,9 +1105,9 @@
       <c r="A6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
         <f t="shared" ref="D6:D12" si="0">SUM(B6:C6)</f>
         <v>0</v>
       </c>
@@ -1010,9 +1116,9 @@
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1021,9 +1127,9 @@
       <c r="A8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1032,9 +1138,9 @@
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1043,9 +1149,9 @@
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1054,9 +1160,9 @@
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1065,9 +1171,9 @@
       <c r="A12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1082,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1108,43 +1214,413 @@
       <c r="A5" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="77.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="83" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="93.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80.140625" customWidth="1"/>
+    <col min="2" max="3" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1167,11 +1643,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
@@ -1316,11 +1792,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
@@ -1413,11 +1889,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
@@ -1510,11 +1986,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
@@ -1627,11 +2103,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
@@ -1745,11 +2221,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
@@ -1939,11 +2415,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
@@ -2069,11 +2545,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
